--- a/SchedulingData/dynamic12/pso/scheduling2_9.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>219.1</v>
+        <v>222.48</v>
       </c>
       <c r="D2" t="n">
-        <v>267.54</v>
+        <v>286.44</v>
       </c>
       <c r="E2" t="n">
-        <v>13.896</v>
+        <v>12.016</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>239.48</v>
+        <v>247.26</v>
       </c>
       <c r="D3" t="n">
-        <v>304.88</v>
+        <v>299.08</v>
       </c>
       <c r="E3" t="n">
-        <v>10.812</v>
+        <v>12.872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>262.46</v>
+        <v>208.98</v>
       </c>
       <c r="D4" t="n">
-        <v>326.7</v>
+        <v>254.56</v>
       </c>
       <c r="E4" t="n">
-        <v>13.46</v>
+        <v>13.744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>326.7</v>
+        <v>243.5</v>
       </c>
       <c r="D5" t="n">
-        <v>394.7</v>
+        <v>304.32</v>
       </c>
       <c r="E5" t="n">
-        <v>9.800000000000001</v>
+        <v>12.188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>218.4</v>
+        <v>299.08</v>
       </c>
       <c r="D6" t="n">
-        <v>295.2</v>
+        <v>376.58</v>
       </c>
       <c r="E6" t="n">
-        <v>14.12</v>
+        <v>9.212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>304.88</v>
+        <v>230.9</v>
       </c>
       <c r="D7" t="n">
-        <v>344.4</v>
+        <v>292.36</v>
       </c>
       <c r="E7" t="n">
-        <v>8.48</v>
+        <v>12.904</v>
       </c>
     </row>
     <row r="8">
@@ -580,36 +580,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>394.7</v>
+        <v>244.34</v>
       </c>
       <c r="D8" t="n">
-        <v>439.12</v>
+        <v>326</v>
       </c>
       <c r="E8" t="n">
-        <v>7.468</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>344.4</v>
+        <v>376.58</v>
       </c>
       <c r="D9" t="n">
-        <v>418.7</v>
+        <v>440.52</v>
       </c>
       <c r="E9" t="n">
-        <v>4.64</v>
+        <v>5.908</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>205.36</v>
+        <v>286.44</v>
       </c>
       <c r="D10" t="n">
-        <v>259.9</v>
+        <v>351.44</v>
       </c>
       <c r="E10" t="n">
-        <v>15.5</v>
+        <v>9.596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>439.12</v>
+        <v>304.32</v>
       </c>
       <c r="D11" t="n">
-        <v>512.66</v>
+        <v>366.22</v>
       </c>
       <c r="E11" t="n">
-        <v>4.244</v>
+        <v>9.108000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>259.9</v>
+        <v>254.56</v>
       </c>
       <c r="D12" t="n">
-        <v>336.7</v>
+        <v>290.66</v>
       </c>
       <c r="E12" t="n">
-        <v>12.42</v>
+        <v>11.264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>240.26</v>
+        <v>292.36</v>
       </c>
       <c r="D13" t="n">
-        <v>281.8</v>
+        <v>351.88</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>10.572</v>
       </c>
     </row>
     <row r="14">
@@ -694,36 +694,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>267.54</v>
+        <v>351.88</v>
       </c>
       <c r="D14" t="n">
-        <v>309.36</v>
+        <v>396.78</v>
       </c>
       <c r="E14" t="n">
-        <v>11.344</v>
+        <v>7.212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>281.8</v>
+        <v>290.66</v>
       </c>
       <c r="D15" t="n">
-        <v>323.9</v>
+        <v>334.58</v>
       </c>
       <c r="E15" t="n">
-        <v>8.92</v>
+        <v>8.492000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -732,60 +732,60 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>309.36</v>
+        <v>396.78</v>
       </c>
       <c r="D16" t="n">
-        <v>365.86</v>
+        <v>434.58</v>
       </c>
       <c r="E16" t="n">
-        <v>8.784000000000001</v>
+        <v>5.052</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>295.2</v>
+        <v>351.44</v>
       </c>
       <c r="D17" t="n">
-        <v>371.54</v>
+        <v>419.54</v>
       </c>
       <c r="E17" t="n">
-        <v>11.096</v>
+        <v>5.396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>323.9</v>
+        <v>366.22</v>
       </c>
       <c r="D18" t="n">
-        <v>361.7</v>
+        <v>447.36</v>
       </c>
       <c r="E18" t="n">
-        <v>6.76</v>
+        <v>6.084</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -793,184 +793,146 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>336.7</v>
+        <v>326</v>
       </c>
       <c r="D19" t="n">
-        <v>385.66</v>
+        <v>379.86</v>
       </c>
       <c r="E19" t="n">
-        <v>9.144</v>
+        <v>10.204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>385.66</v>
+        <v>334.58</v>
       </c>
       <c r="D20" t="n">
-        <v>432.72</v>
+        <v>372.38</v>
       </c>
       <c r="E20" t="n">
-        <v>6.548</v>
+        <v>6.332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>361.7</v>
+        <v>379.86</v>
       </c>
       <c r="D21" t="n">
-        <v>406.04</v>
+        <v>444.26</v>
       </c>
       <c r="E21" t="n">
-        <v>3.456</v>
+        <v>6.364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>432.72</v>
+        <v>440.52</v>
       </c>
       <c r="D22" t="n">
-        <v>477.08</v>
+        <v>482.62</v>
       </c>
       <c r="E22" t="n">
-        <v>2.752</v>
+        <v>2.828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>418.7</v>
+        <v>372.38</v>
       </c>
       <c r="D23" t="n">
-        <v>453.76</v>
+        <v>424.48</v>
       </c>
       <c r="E23" t="n">
-        <v>2.264</v>
+        <v>3.252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>365.86</v>
+        <v>444.26</v>
       </c>
       <c r="D24" t="n">
-        <v>434.36</v>
+        <v>479.32</v>
       </c>
       <c r="E24" t="n">
-        <v>5.064</v>
+        <v>3.988</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>371.54</v>
+        <v>419.54</v>
       </c>
       <c r="D25" t="n">
-        <v>429.14</v>
+        <v>454.16</v>
       </c>
       <c r="E25" t="n">
-        <v>8.936</v>
+        <v>3.064</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>406.04</v>
+        <v>447.36</v>
       </c>
       <c r="D26" t="n">
-        <v>450.94</v>
+        <v>489.38</v>
       </c>
       <c r="E26" t="n">
-        <v>0.096</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>450.94</v>
-      </c>
-      <c r="D27" t="n">
-        <v>552.25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>pond2</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>429.14</v>
-      </c>
-      <c r="D28" t="n">
-        <v>499.24</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6.516</v>
+        <v>3.012</v>
       </c>
     </row>
   </sheetData>
